--- a/Source/Excel/task.xlsx
+++ b/Source/Excel/task.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB62D921-AF82-49F7-B25E-210F9AF64FBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E09749-5BEA-4533-904D-1DBBDB2E628E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -144,6 +144,30 @@
   </si>
   <si>
     <t>[9]</t>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -517,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -551,203 +575,223 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Source/Excel/task.xlsx
+++ b/Source/Excel/task.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E09749-5BEA-4533-904D-1DBBDB2E628E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A5B2C7-630B-4AFC-990E-8E22DEB03200}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -82,10 +82,6 @@
     <t>任务9</t>
   </si>
   <si>
-    <t>rewards</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>json</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -167,6 +163,14 @@
   </si>
   <si>
     <t>描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>props</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +548,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -569,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -577,22 +581,22 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -600,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -609,7 +613,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>6</v>
@@ -626,10 +630,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -646,10 +650,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -666,10 +670,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -686,10 +690,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -706,10 +710,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
@@ -726,10 +730,10 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
@@ -746,10 +750,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -766,10 +770,10 @@
         <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -786,10 +790,10 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>16</v>
